--- a/5. Other/Chiết khấu/Năm 2026/Chiết-khấu-tháng-02-2026.xlsx
+++ b/5. Other/Chiết khấu/Năm 2026/Chiết-khấu-tháng-02-2026.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC93C8F-0524-4778-ACC5-74D947AB7B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3756BAA6-38EB-4F8C-8766-D92BBD7724AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng tính CK" sheetId="1" r:id="rId1"/>
@@ -810,6 +810,27 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,19 +879,67 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -885,67 +954,69 @@
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -953,77 +1024,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1515,74 +1515,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="88" t="s">
+      <c r="A1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="85" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="93" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="67"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
       <c r="D6" s="68"/>
-      <c r="E6" s="90" t="str">
+      <c r="E6" s="97" t="str">
         <f>'Phiếu tính CK'!H6</f>
         <v>Hà Nội, ngày 27 tháng 02 năm 2026</v>
       </c>
-      <c r="F6" s="90"/>
+      <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1645,10 +1645,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="52">
         <f>SUM(C11:C11)</f>
         <v>550</v>
@@ -1658,12 +1658,12 @@
       <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="51">
         <f>SUM(E11:E11)</f>
         <v>1650000</v>
@@ -1687,33 +1687,33 @@
       <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="99"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="99"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="100"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="100"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="27" t="s">
         <v>7</v>
       </c>
@@ -1751,17 +1751,17 @@
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="99"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="99"/>
+      <c r="E22" s="85"/>
       <c r="F22" s="9" t="s">
         <v>10</v>
       </c>
@@ -1800,6 +1800,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A16:B16"/>
@@ -1808,14 +1816,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1830,8 +1830,8 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,64 +1853,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="112"/>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114" t="s">
+      <c r="A1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="123" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="125"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="93" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="82" t="s">
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="116"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
@@ -1959,10 +1959,10 @@
       <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="50">
         <f>'Bảng tính CK'!E13</f>
         <v>1650000</v>
@@ -1974,10 +1974,10 @@
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="106"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="50">
         <v>4</v>
       </c>
@@ -1988,10 +1988,10 @@
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="122"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="47">
         <v>0</v>
       </c>
@@ -2002,10 +2002,10 @@
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="111"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="47">
         <f>COUNTIFS(C16:C21, "&gt;=2.5",C16:C21,"&lt;7")</f>
         <v>0</v>
@@ -2165,11 +2165,11 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="48">
         <f>SUM(D16:D19)</f>
         <v>400</v>
@@ -2202,11 +2202,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="97"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="33"/>
       <c r="E22" s="51">
         <f>SUM(E16:E19)</f>
@@ -2249,40 +2249,40 @@
       <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102" t="s">
+      <c r="B25" s="125"/>
+      <c r="C25" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103" t="s">
+      <c r="D25" s="125"/>
+      <c r="E25" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="103"/>
-      <c r="G25" s="102" t="s">
+      <c r="F25" s="126"/>
+      <c r="G25" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="102"/>
+      <c r="H25" s="125"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100" t="s">
+      <c r="B26" s="86"/>
+      <c r="C26" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="104" t="s">
+      <c r="D26" s="86"/>
+      <c r="E26" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="104"/>
-      <c r="G26" s="100" t="s">
+      <c r="F26" s="127"/>
+      <c r="G26" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="100"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
@@ -2325,36 +2325,25 @@
       <c r="H30" s="59"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102" t="s">
+      <c r="B31" s="125"/>
+      <c r="C31" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103" t="s">
+      <c r="D31" s="125"/>
+      <c r="E31" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="103"/>
-      <c r="G31" s="102" t="s">
+      <c r="F31" s="126"/>
+      <c r="G31" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="102"/>
+      <c r="H31" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C2:H2"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A31:B31"/>
@@ -2368,6 +2357,17 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -2385,7 +2385,7 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -2402,55 +2402,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134"/>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135" t="s">
+      <c r="A1" s="136"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="141" t="s">
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="142"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="141" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="142"/>
+      <c r="H2" s="144"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="141" t="s">
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="142"/>
+      <c r="H3" s="144"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="str">
+      <c r="A4" s="135" t="str">
         <f>'Phiếu tính CK'!H6</f>
         <v>Hà Nội, ngày 27 tháng 02 năm 2026</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
@@ -2487,27 +2487,27 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="148" t="s">
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="148"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
-      <c r="B9" s="144"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="37" t="s">
         <v>16</v>
       </c>
@@ -2520,12 +2520,12 @@
       <c r="F9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
       <c r="I9" s="57"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="152">
+      <c r="A10" s="81">
         <v>1</v>
       </c>
       <c r="B10" s="38" t="s">
@@ -2551,7 +2551,7 @@
       <c r="I10" s="57"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="152">
+      <c r="A11" s="81">
         <v>2</v>
       </c>
       <c r="B11" s="40" t="s">
@@ -2577,10 +2577,10 @@
       <c r="I11" s="57"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="152">
+      <c r="A12" s="81">
         <v>3</v>
       </c>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="80" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="39">
@@ -2603,10 +2603,10 @@
       <c r="I12" s="57"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="152">
+      <c r="A13" s="81">
         <v>4</v>
       </c>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="80" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="39">
@@ -2628,7 +2628,7 @@
       <c r="H13" s="128"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="152">
+      <c r="A14" s="81">
         <v>5</v>
       </c>
       <c r="B14" s="40" t="s">
@@ -2653,7 +2653,7 @@
       <c r="H14" s="128"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="152">
+      <c r="A15" s="81">
         <v>6</v>
       </c>
       <c r="B15" s="40" t="s">
@@ -2678,7 +2678,7 @@
       <c r="H15" s="128"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="152">
+      <c r="A16" s="81">
         <v>7</v>
       </c>
       <c r="B16" s="40" t="s">
@@ -2702,7 +2702,7 @@
       <c r="H16" s="128"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="152">
+      <c r="A17" s="81">
         <v>8</v>
       </c>
       <c r="B17" s="40" t="s">
@@ -2720,7 +2720,7 @@
       <c r="H17" s="128"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="152">
+      <c r="A18" s="81">
         <v>9</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -2745,10 +2745,10 @@
       <c r="H18" s="150"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="130"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="42">
         <f>SUM(C10:C18)</f>
         <v>2960</v>
@@ -2765,8 +2765,8 @@
         <f>SUM(F10:F17)</f>
         <v>647</v>
       </c>
-      <c r="G19" s="131"/>
-      <c r="H19" s="132"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
@@ -2779,40 +2779,40 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="127" t="s">
+      <c r="A21" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127" t="s">
+      <c r="B21" s="152"/>
+      <c r="C21" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127" t="s">
+      <c r="D21" s="152"/>
+      <c r="E21" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="127"/>
-      <c r="G21" s="99" t="s">
+      <c r="F21" s="152"/>
+      <c r="G21" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="99"/>
+      <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100" t="s">
+      <c r="B22" s="86"/>
+      <c r="C22" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100" t="s">
+      <c r="D22" s="86"/>
+      <c r="E22" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100" t="s">
+      <c r="F22" s="86"/>
+      <c r="G22" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="100"/>
+      <c r="H22" s="86"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
@@ -2855,22 +2855,22 @@
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126" t="s">
+      <c r="B27" s="151"/>
+      <c r="C27" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126" t="s">
+      <c r="D27" s="151"/>
+      <c r="E27" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126" t="s">
+      <c r="F27" s="151"/>
+      <c r="G27" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="126"/>
+      <c r="H27" s="151"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
@@ -2884,27 +2884,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:F3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
@@ -2917,6 +2896,27 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:F3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H9"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
